--- a/Data/Vietnam Provincial Budget/Plan/MOF Budget 2002.xlsx
+++ b/Data/Vietnam Provincial Budget/Plan/MOF Budget 2002.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (MIT)\Documents\Works\Vietnam Elections\Data\Vietnam Provincial Budget\Plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,240 +24,224 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
-  <si>
-    <t xml:space="preserve">Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tong chi ngan sach dia phuong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chi dau tu phat trien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chi thuong xuyen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An Giang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ba Ria – Vung Tau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bac Giang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bac Kan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bac Lieu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bac Ninh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ben Tre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binh Dinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binh Duong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binh Phuoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binh Thuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ca Mau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can Tho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cao Bang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Da Nang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dak Lak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dak Nong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dien Bien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dong Nai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dong Thap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gia Lai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ha Giang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ha Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ha Noi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ha Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hai Duong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hai Phong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hau Giang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoa Binh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hung Yen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khanh Hoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kien Giang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kon Tum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lai Chau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lam Dong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lang Son</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lao Cai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long An</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nam Dinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nghe An</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninh Binh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninh Thuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phu Tho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phu Yen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quang Binh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quang Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quang Ngai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quang Ninh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quang Tri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soc Trang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son La</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tay Ninh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thai Binh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thai Nguyen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thanh Hoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thanh pho Ho Chi Minh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thua Thien – Hue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tien Giang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tra Vinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuyen Quang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vinh Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vinh Phuc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yen Bai</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Tong chi ngan sach dia phuong</t>
+  </si>
+  <si>
+    <t>Chi dau tu phat trien</t>
+  </si>
+  <si>
+    <t>Chi thuong xuyen</t>
+  </si>
+  <si>
+    <t>An Giang</t>
+  </si>
+  <si>
+    <t>Ba Ria – Vung Tau</t>
+  </si>
+  <si>
+    <t>Bac Giang</t>
+  </si>
+  <si>
+    <t>Bac Kan</t>
+  </si>
+  <si>
+    <t>Bac Lieu</t>
+  </si>
+  <si>
+    <t>Bac Ninh</t>
+  </si>
+  <si>
+    <t>Ben Tre</t>
+  </si>
+  <si>
+    <t>Binh Dinh</t>
+  </si>
+  <si>
+    <t>Binh Duong</t>
+  </si>
+  <si>
+    <t>Binh Phuoc</t>
+  </si>
+  <si>
+    <t>Binh Thuan</t>
+  </si>
+  <si>
+    <t>Ca Mau</t>
+  </si>
+  <si>
+    <t>Can Tho</t>
+  </si>
+  <si>
+    <t>Cao Bang</t>
+  </si>
+  <si>
+    <t>Da Nang</t>
+  </si>
+  <si>
+    <t>Dak Lak</t>
+  </si>
+  <si>
+    <t>Dak Nong</t>
+  </si>
+  <si>
+    <t>Dien Bien</t>
+  </si>
+  <si>
+    <t>Dong Nai</t>
+  </si>
+  <si>
+    <t>Dong Thap</t>
+  </si>
+  <si>
+    <t>Gia Lai</t>
+  </si>
+  <si>
+    <t>Ha Giang</t>
+  </si>
+  <si>
+    <t>Ha Nam</t>
+  </si>
+  <si>
+    <t>Ha Noi</t>
+  </si>
+  <si>
+    <t>Ha Tinh</t>
+  </si>
+  <si>
+    <t>Hai Duong</t>
+  </si>
+  <si>
+    <t>Hai Phong</t>
+  </si>
+  <si>
+    <t>Hau Giang</t>
+  </si>
+  <si>
+    <t>Hoa Binh</t>
+  </si>
+  <si>
+    <t>Hung Yen</t>
+  </si>
+  <si>
+    <t>Khanh Hoa</t>
+  </si>
+  <si>
+    <t>Kien Giang</t>
+  </si>
+  <si>
+    <t>Kon Tum</t>
+  </si>
+  <si>
+    <t>Lai Chau</t>
+  </si>
+  <si>
+    <t>Lam Dong</t>
+  </si>
+  <si>
+    <t>Lang Son</t>
+  </si>
+  <si>
+    <t>Lao Cai</t>
+  </si>
+  <si>
+    <t>Long An</t>
+  </si>
+  <si>
+    <t>Nam Dinh</t>
+  </si>
+  <si>
+    <t>Nghe An</t>
+  </si>
+  <si>
+    <t>Ninh Binh</t>
+  </si>
+  <si>
+    <t>Ninh Thuan</t>
+  </si>
+  <si>
+    <t>Phu Tho</t>
+  </si>
+  <si>
+    <t>Phu Yen</t>
+  </si>
+  <si>
+    <t>Quang Binh</t>
+  </si>
+  <si>
+    <t>Quang Nam</t>
+  </si>
+  <si>
+    <t>Quang Ngai</t>
+  </si>
+  <si>
+    <t>Quang Ninh</t>
+  </si>
+  <si>
+    <t>Quang Tri</t>
+  </si>
+  <si>
+    <t>Soc Trang</t>
+  </si>
+  <si>
+    <t>Son La</t>
+  </si>
+  <si>
+    <t>Tay Ninh</t>
+  </si>
+  <si>
+    <t>Thai Binh</t>
+  </si>
+  <si>
+    <t>Thai Nguyen</t>
+  </si>
+  <si>
+    <t>Thanh Hoa</t>
+  </si>
+  <si>
+    <t>Thanh pho Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Thua Thien – Hue</t>
+  </si>
+  <si>
+    <t>Tien Giang</t>
+  </si>
+  <si>
+    <t>Tra Vinh</t>
+  </si>
+  <si>
+    <t>Tuyen Quang</t>
+  </si>
+  <si>
+    <t>Vinh Long</t>
+  </si>
+  <si>
+    <t>Vinh Phuc</t>
+  </si>
+  <si>
+    <t>Yen Bai</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -278,7 +266,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -286,85 +274,313 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col min="1" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -380,9 +596,12 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="F1" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>2002</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -392,8 +611,8 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2002</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -403,8 +622,8 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2002</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -414,8 +633,8 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>2002</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -425,8 +644,8 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>2002</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -436,8 +655,8 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>2002</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -447,8 +666,8 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>2002</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -458,8 +677,8 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>2002</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -469,8 +688,8 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>2002</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -480,8 +699,8 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>2002</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -491,8 +710,8 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>2002</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -502,8 +721,8 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>2002</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -513,8 +732,8 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>2002</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -524,8 +743,8 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>2002</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -535,8 +754,8 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>2002</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -546,8 +765,8 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>2002</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -557,8 +776,8 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>2002</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -568,8 +787,8 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>2002</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -579,8 +798,8 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>2002</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -590,8 +809,8 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>2002</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -601,8 +820,8 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>2002</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -612,8 +831,8 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>2002</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -623,8 +842,8 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>2002</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -634,8 +853,8 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>2002</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -645,8 +864,8 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>2002</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -656,8 +875,8 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>2002</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -667,8 +886,8 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>2002</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -678,8 +897,8 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>2002</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -689,8 +908,8 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>2002</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -700,8 +919,8 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>2002</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -711,8 +930,8 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>2002</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -722,8 +941,8 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>2002</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -733,8 +952,8 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>2002</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -744,8 +963,8 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>2002</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -755,8 +974,8 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>2002</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -766,8 +985,8 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>2002</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -777,8 +996,8 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>2002</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -788,8 +1007,8 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>2002</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -799,8 +1018,8 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>2002</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -810,8 +1029,8 @@
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>2002</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -821,8 +1040,8 @@
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>2002</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -832,8 +1051,8 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>2002</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -843,8 +1062,8 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>2002</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -854,8 +1073,8 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>2002</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -865,8 +1084,8 @@
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>2002</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -876,8 +1095,8 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>2002</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -887,8 +1106,8 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>2002</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -898,8 +1117,8 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>2002</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -909,8 +1128,8 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>2002</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -920,8 +1139,8 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>2002</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -931,8 +1150,8 @@
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>2002</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -942,8 +1161,8 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>2002</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -953,8 +1172,8 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>2002</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -964,8 +1183,8 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>2002</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -975,8 +1194,8 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
         <v>2002</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -986,8 +1205,8 @@
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>2002</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -997,8 +1216,8 @@
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>2002</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -1008,8 +1227,8 @@
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>2002</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -1019,8 +1238,8 @@
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>2002</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -1030,8 +1249,8 @@
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <v>2002</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -1041,8 +1260,8 @@
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>2002</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -1052,8 +1271,8 @@
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <v>2002</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -1063,8 +1282,8 @@
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
         <v>2002</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -1075,10 +1294,9 @@
       <c r="E64" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
